--- a/biology/Zoologie/Grallaire_écaillée/Grallaire_écaillée.xlsx
+++ b/biology/Zoologie/Grallaire_écaillée/Grallaire_écaillée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A9caill%C3%A9e</t>
+          <t>Grallaire_écaillée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaria guatimalensis
 La Grallaire écaillée (Grallaria guatimalensis) est une espèce d'oiseaux de la famille des Grallariidae. Elle tire son nom des plumes en formes d'écailles qu'elle porte sur sa tête et son dos.
-On la trouve en Amérique centrale ainsi qu'en Amérique du Sud équatoriale[2]. Son habitat naturel est subtropical ou des forêts tropicales humides.
+On la trouve en Amérique centrale ainsi qu'en Amérique du Sud équatoriale. Son habitat naturel est subtropical ou des forêts tropicales humides.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grallaire_%C3%A9caill%C3%A9e</t>
+          <t>Grallaire_écaillée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 11.1, 2021) :
 sous-espèce Grallaria guatimalensis binfordi Dickerman, 1990
 sous-espèce Grallaria guatimalensis ochraceiventris Nelson, 1898
 sous-espèce Grallaria guatimalensis guatimalensis Prévost &amp; Des Murs, 1842
